--- a/N_Scale_Indian_Railways.jmri/planning/MML/MML_sw_blk_sig_config.xlsx
+++ b/N_Scale_Indian_Railways.jmri/planning/MML/MML_sw_blk_sig_config.xlsx
@@ -213,7 +213,7 @@
     <t xml:space="preserve">3-aspect-with-route</t>
   </si>
   <si>
-    <t xml:space="preserve">{OnTrack:MNL;Direction:Right;StationCode:MML;SigType:HomeWithRoute}</t>
+    <t xml:space="preserve">{OnTrack:MNL;Direction:Right;StationCode:MML;SigType:HomeWithRoute;Divergin:Right}</t>
   </si>
   <si>
     <t xml:space="preserve">SIG 2R</t>
@@ -560,7 +560,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.2"/>
@@ -586,7 +586,8 @@
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -600,7 +601,8 @@
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -614,7 +616,8 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -628,7 +631,8 @@
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -642,7 +646,8 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -656,7 +661,8 @@
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -688,7 +694,7 @@
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
@@ -714,7 +720,8 @@
       <c r="A2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="b">
+      <c r="B2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -728,7 +735,8 @@
       <c r="A3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="b">
+      <c r="B3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -742,7 +750,8 @@
       <c r="A4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="b">
+      <c r="B4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -756,7 +765,8 @@
       <c r="A5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="b">
+      <c r="B5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -770,7 +780,8 @@
       <c r="A6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="b">
+      <c r="B6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -784,7 +795,8 @@
       <c r="A7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="b">
+      <c r="B7" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -798,7 +810,8 @@
       <c r="A8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="b">
+      <c r="B8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -812,7 +825,8 @@
       <c r="A9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -826,7 +840,8 @@
       <c r="A10" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="1" t="b">
+      <c r="B10" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -840,7 +855,8 @@
       <c r="A11" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="1" t="b">
+      <c r="B11" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -854,7 +870,8 @@
       <c r="A12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="b">
+      <c r="B12" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -868,7 +885,8 @@
       <c r="A13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="1" t="b">
+      <c r="B13" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -882,7 +900,8 @@
       <c r="A14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="1" t="b">
+      <c r="B14" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -931,10 +950,10 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -962,7 +981,8 @@
       <c r="B2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="C2" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -976,7 +996,8 @@
       <c r="B3" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="b">
+      <c r="C3" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -990,7 +1011,8 @@
       <c r="B4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="1" t="b">
+      <c r="C4" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
@@ -1004,7 +1026,8 @@
       <c r="B5" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="b">
+      <c r="C5" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -1018,7 +1041,8 @@
       <c r="B6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="1" t="b">
+      <c r="C6" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
@@ -1032,7 +1056,8 @@
       <c r="B7" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1" t="b">
+      <c r="C7" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
@@ -1046,7 +1071,8 @@
       <c r="B8" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1" t="b">
+      <c r="C8" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
